--- a/data/pca/factorExposure/factorExposure_2016-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009894069863358664</v>
+        <v>-0.01234128488490709</v>
       </c>
       <c r="C2">
-        <v>0.05500309491310843</v>
+        <v>0.03959872436455408</v>
       </c>
       <c r="D2">
-        <v>0.04172821094406366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05658045814131647</v>
+      </c>
+      <c r="E2">
+        <v>-0.08573581929157663</v>
+      </c>
+      <c r="F2">
+        <v>-0.0855028492840655</v>
+      </c>
+      <c r="G2">
+        <v>0.002646437201336868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03564357594456605</v>
+        <v>-0.02290090342749218</v>
       </c>
       <c r="C3">
-        <v>0.1211448593336714</v>
+        <v>0.07141571757258849</v>
       </c>
       <c r="D3">
-        <v>0.09840011117363869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07670072903073177</v>
+      </c>
+      <c r="E3">
+        <v>-0.06841663985703701</v>
+      </c>
+      <c r="F3">
+        <v>0.02652960183271759</v>
+      </c>
+      <c r="G3">
+        <v>0.03952095543564992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05746037747814085</v>
+        <v>-0.05586711631934119</v>
       </c>
       <c r="C4">
-        <v>0.06326261816508408</v>
+        <v>0.06600218724297531</v>
       </c>
       <c r="D4">
-        <v>0.02943436302259069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05180623475919984</v>
+      </c>
+      <c r="E4">
+        <v>-0.0821478792314778</v>
+      </c>
+      <c r="F4">
+        <v>-0.06131724240369854</v>
+      </c>
+      <c r="G4">
+        <v>0.07507196471507854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0380066728004048</v>
+        <v>-0.03423520465039079</v>
       </c>
       <c r="C6">
-        <v>0.0390947231489274</v>
+        <v>0.03017385931813992</v>
       </c>
       <c r="D6">
-        <v>0.03453093979286214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05902823835958793</v>
+      </c>
+      <c r="E6">
+        <v>-0.08613290864916731</v>
+      </c>
+      <c r="F6">
+        <v>-0.0477914188306887</v>
+      </c>
+      <c r="G6">
+        <v>0.0597749909152939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02082946974617907</v>
+        <v>-0.01698826354903955</v>
       </c>
       <c r="C7">
-        <v>0.04714820394153823</v>
+        <v>0.03953079822801248</v>
       </c>
       <c r="D7">
-        <v>-0.009731932594801953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03220502788352373</v>
+      </c>
+      <c r="E7">
+        <v>-0.05905021533881508</v>
+      </c>
+      <c r="F7">
+        <v>-0.09385075079995259</v>
+      </c>
+      <c r="G7">
+        <v>0.06635711032968432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004863283941962563</v>
+        <v>-0.002474319681369168</v>
       </c>
       <c r="C8">
-        <v>0.03546090186720788</v>
+        <v>0.03179020617255507</v>
       </c>
       <c r="D8">
-        <v>0.02633192305553162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0305226636688714</v>
+      </c>
+      <c r="E8">
+        <v>-0.05797099300268937</v>
+      </c>
+      <c r="F8">
+        <v>-0.03250992034540119</v>
+      </c>
+      <c r="G8">
+        <v>0.02945836032929387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0318743928653312</v>
+        <v>-0.03582087147313964</v>
       </c>
       <c r="C9">
-        <v>0.04922739625195908</v>
+        <v>0.05263807765097037</v>
       </c>
       <c r="D9">
-        <v>0.01199082162027008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03613621601030625</v>
+      </c>
+      <c r="E9">
+        <v>-0.06887358055366723</v>
+      </c>
+      <c r="F9">
+        <v>-0.07314745731517917</v>
+      </c>
+      <c r="G9">
+        <v>0.0649822335483607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08736875997825012</v>
+        <v>-0.1086023537549051</v>
       </c>
       <c r="C10">
-        <v>-0.1859106545472543</v>
+        <v>-0.1927000933515375</v>
       </c>
       <c r="D10">
-        <v>-0.003088063960866251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01074409594862814</v>
+      </c>
+      <c r="E10">
+        <v>-0.0426606159989027</v>
+      </c>
+      <c r="F10">
+        <v>-0.02501493597114128</v>
+      </c>
+      <c r="G10">
+        <v>0.02539222592351272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03900079372113405</v>
+        <v>-0.03465765730162218</v>
       </c>
       <c r="C11">
-        <v>0.0554555782644464</v>
+        <v>0.05021229854659293</v>
       </c>
       <c r="D11">
-        <v>0.009061898639439478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03046999781044879</v>
+      </c>
+      <c r="E11">
+        <v>-0.02345355086703275</v>
+      </c>
+      <c r="F11">
+        <v>-0.05688589571181044</v>
+      </c>
+      <c r="G11">
+        <v>0.05164983231078227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0410162332196478</v>
+        <v>-0.03692305665210389</v>
       </c>
       <c r="C12">
-        <v>0.05019043830833338</v>
+        <v>0.04728817277732628</v>
       </c>
       <c r="D12">
-        <v>0.000673958871908971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02398922505270839</v>
+      </c>
+      <c r="E12">
+        <v>-0.03150652681678572</v>
+      </c>
+      <c r="F12">
+        <v>-0.05860821060598351</v>
+      </c>
+      <c r="G12">
+        <v>0.04829181525621258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01104281069426708</v>
+        <v>-0.009531673002024031</v>
       </c>
       <c r="C13">
-        <v>0.05397617814489337</v>
+        <v>0.04338235268343912</v>
       </c>
       <c r="D13">
-        <v>0.009013130545316991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04279349835838957</v>
+      </c>
+      <c r="E13">
+        <v>-0.09444152037183669</v>
+      </c>
+      <c r="F13">
+        <v>-0.0839397012417471</v>
+      </c>
+      <c r="G13">
+        <v>0.07422381830386102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006201349085877648</v>
+        <v>-0.003579381341792458</v>
       </c>
       <c r="C14">
-        <v>0.04124582846849203</v>
+        <v>0.03356976455105103</v>
       </c>
       <c r="D14">
-        <v>-0.0139470524494291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02182522619269459</v>
+      </c>
+      <c r="E14">
+        <v>-0.04717172295044716</v>
+      </c>
+      <c r="F14">
+        <v>-0.09342805711064493</v>
+      </c>
+      <c r="G14">
+        <v>0.05191556933160444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002566061851888081</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004801924297641043</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006503705043889862</v>
+      </c>
+      <c r="E15">
+        <v>-0.003892207452460338</v>
+      </c>
+      <c r="F15">
+        <v>-0.006437207909791994</v>
+      </c>
+      <c r="G15">
+        <v>0.004158064975049566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03608645071990177</v>
+        <v>-0.03296846378556836</v>
       </c>
       <c r="C16">
-        <v>0.05051608103180281</v>
+        <v>0.04624501647502638</v>
       </c>
       <c r="D16">
-        <v>0.004960488224526691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02337115333775517</v>
+      </c>
+      <c r="E16">
+        <v>-0.03771293947629185</v>
+      </c>
+      <c r="F16">
+        <v>-0.06301207788623667</v>
+      </c>
+      <c r="G16">
+        <v>0.03735865215480178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0187629646146743</v>
+        <v>-0.01446723216980824</v>
       </c>
       <c r="C19">
-        <v>0.06646160005125734</v>
+        <v>0.04805778967029856</v>
       </c>
       <c r="D19">
-        <v>0.09123304266848348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08940280294032218</v>
+      </c>
+      <c r="E19">
+        <v>-0.1094267689606761</v>
+      </c>
+      <c r="F19">
+        <v>-0.07929629640758212</v>
+      </c>
+      <c r="G19">
+        <v>0.02366667303322606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01437664013939336</v>
+        <v>-0.01175685846202266</v>
       </c>
       <c r="C20">
-        <v>0.04936067487997088</v>
+        <v>0.03992761347363682</v>
       </c>
       <c r="D20">
-        <v>0.009903367245772551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03081707895839317</v>
+      </c>
+      <c r="E20">
+        <v>-0.07495295434942924</v>
+      </c>
+      <c r="F20">
+        <v>-0.06917435166677666</v>
+      </c>
+      <c r="G20">
+        <v>0.04890776627726356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007924711357586727</v>
+        <v>-0.007851771360037365</v>
       </c>
       <c r="C21">
-        <v>0.050631376912619</v>
+        <v>0.04290020515762536</v>
       </c>
       <c r="D21">
-        <v>0.03736564489010531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0572680338513096</v>
+      </c>
+      <c r="E21">
+        <v>-0.1145077907992235</v>
+      </c>
+      <c r="F21">
+        <v>-0.1107193403396818</v>
+      </c>
+      <c r="G21">
+        <v>0.07505251135134947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.000834418060462144</v>
+        <v>-0.002231696786405476</v>
       </c>
       <c r="C22">
-        <v>0.0006865849287193411</v>
+        <v>0.0258791145648548</v>
       </c>
       <c r="D22">
-        <v>0.00179755004256184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04115625254581649</v>
+      </c>
+      <c r="E22">
+        <v>-0.03906349917992406</v>
+      </c>
+      <c r="F22">
+        <v>-0.0006577915346669884</v>
+      </c>
+      <c r="G22">
+        <v>0.05171869151623189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0008400421491346629</v>
+        <v>-0.002302579678761974</v>
       </c>
       <c r="C23">
-        <v>0.0006865325196139517</v>
+        <v>0.02603818574488628</v>
       </c>
       <c r="D23">
-        <v>0.00180369568987636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04078883805846918</v>
+      </c>
+      <c r="E23">
+        <v>-0.03931929073378797</v>
+      </c>
+      <c r="F23">
+        <v>-0.0003586630499171762</v>
+      </c>
+      <c r="G23">
+        <v>0.05179587679380897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03263371948565635</v>
+        <v>-0.03270793524298977</v>
       </c>
       <c r="C24">
-        <v>0.05206844336128066</v>
+        <v>0.0538736280892395</v>
       </c>
       <c r="D24">
-        <v>0.005626543778680562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02338589685329907</v>
+      </c>
+      <c r="E24">
+        <v>-0.03869657365759736</v>
+      </c>
+      <c r="F24">
+        <v>-0.0664549233468931</v>
+      </c>
+      <c r="G24">
+        <v>0.04788323577084862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04575398690454561</v>
+        <v>-0.04193264807735212</v>
       </c>
       <c r="C25">
-        <v>0.06388376732886233</v>
+        <v>0.05817787436257787</v>
       </c>
       <c r="D25">
-        <v>-0.004465085617237612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02290910709773874</v>
+      </c>
+      <c r="E25">
+        <v>-0.02909940186479533</v>
+      </c>
+      <c r="F25">
+        <v>-0.06108684769658507</v>
+      </c>
+      <c r="G25">
+        <v>0.0634149527602838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01530098583758137</v>
+        <v>-0.01430150135361316</v>
       </c>
       <c r="C26">
-        <v>0.01876833095332372</v>
+        <v>0.01775610813293175</v>
       </c>
       <c r="D26">
-        <v>0.00058596451625023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02170504160557494</v>
+      </c>
+      <c r="E26">
+        <v>-0.04782210032395968</v>
+      </c>
+      <c r="F26">
+        <v>-0.0688730443848167</v>
+      </c>
+      <c r="G26">
+        <v>0.02526803450598902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1032562405887619</v>
+        <v>-0.1444765248161609</v>
       </c>
       <c r="C28">
-        <v>-0.2397739220936943</v>
+        <v>-0.2459807119438682</v>
       </c>
       <c r="D28">
-        <v>-0.002153400222940883</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02631359318143425</v>
+      </c>
+      <c r="E28">
+        <v>-0.05815533519258752</v>
+      </c>
+      <c r="F28">
+        <v>-0.04124202067327545</v>
+      </c>
+      <c r="G28">
+        <v>0.04523079744216488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.005954571741512146</v>
+        <v>-0.004656137961837998</v>
       </c>
       <c r="C29">
-        <v>0.03280159115707501</v>
+        <v>0.02944457477055186</v>
       </c>
       <c r="D29">
-        <v>-0.01787547544219085</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01523173649963136</v>
+      </c>
+      <c r="E29">
+        <v>-0.04550514876310226</v>
+      </c>
+      <c r="F29">
+        <v>-0.08238595486420341</v>
+      </c>
+      <c r="G29">
+        <v>0.06064610660005589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04206718423991182</v>
+        <v>-0.03833080462291828</v>
       </c>
       <c r="C30">
-        <v>0.0580811168465554</v>
+        <v>0.05922623215111355</v>
       </c>
       <c r="D30">
-        <v>0.06586323063482885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09702697085853448</v>
+      </c>
+      <c r="E30">
+        <v>-0.07479801441943219</v>
+      </c>
+      <c r="F30">
+        <v>-0.08604808311904456</v>
+      </c>
+      <c r="G30">
+        <v>0.03834358185135066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05561519856094127</v>
+        <v>-0.05524906439796144</v>
       </c>
       <c r="C31">
-        <v>0.04762292399470437</v>
+        <v>0.06306181059242132</v>
       </c>
       <c r="D31">
-        <v>-0.02815919538006072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0152547708369956</v>
+      </c>
+      <c r="E31">
+        <v>-0.06529110453921728</v>
+      </c>
+      <c r="F31">
+        <v>-0.04616967536249923</v>
+      </c>
+      <c r="G31">
+        <v>0.07682834225130383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002161719381750273</v>
+        <v>-0.004592767722653017</v>
       </c>
       <c r="C32">
-        <v>0.04008002727006188</v>
+        <v>0.03365337017637796</v>
       </c>
       <c r="D32">
-        <v>0.04760732146796668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05232652275336434</v>
+      </c>
+      <c r="E32">
+        <v>-0.05672782535682826</v>
+      </c>
+      <c r="F32">
+        <v>-0.0717932085463264</v>
+      </c>
+      <c r="G32">
+        <v>0.03129691073696154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02710066179428912</v>
+        <v>-0.02359609737972864</v>
       </c>
       <c r="C33">
-        <v>0.06487111199660174</v>
+        <v>0.05641801593595334</v>
       </c>
       <c r="D33">
-        <v>0.03942830006804816</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06991871406268017</v>
+      </c>
+      <c r="E33">
+        <v>-0.08749147684847415</v>
+      </c>
+      <c r="F33">
+        <v>-0.09729764310780407</v>
+      </c>
+      <c r="G33">
+        <v>0.07547596257350353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04352231016807014</v>
+        <v>-0.03933737290512602</v>
       </c>
       <c r="C34">
-        <v>0.06808984192756934</v>
+        <v>0.065637816480759</v>
       </c>
       <c r="D34">
-        <v>0.00897866262240244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03572369912905949</v>
+      </c>
+      <c r="E34">
+        <v>-0.01099061144117316</v>
+      </c>
+      <c r="F34">
+        <v>-0.06932545312598065</v>
+      </c>
+      <c r="G34">
+        <v>0.0504955602547527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01560019721663364</v>
+        <v>-0.0138598262424242</v>
       </c>
       <c r="C36">
-        <v>0.0175382061990484</v>
+        <v>0.01378363890800199</v>
       </c>
       <c r="D36">
-        <v>-0.005076289415856336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02050841580605853</v>
+      </c>
+      <c r="E36">
+        <v>-0.05567330910051928</v>
+      </c>
+      <c r="F36">
+        <v>-0.06474672831235072</v>
+      </c>
+      <c r="G36">
+        <v>0.04655581396557699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0282437240328611</v>
+        <v>-0.02224435917540957</v>
       </c>
       <c r="C38">
-        <v>0.03210961443423944</v>
+        <v>0.02428855896349306</v>
       </c>
       <c r="D38">
-        <v>-0.01455855784068281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01785221947495207</v>
+      </c>
+      <c r="E38">
+        <v>-0.04785020974235926</v>
+      </c>
+      <c r="F38">
+        <v>-0.05256262672980899</v>
+      </c>
+      <c r="G38">
+        <v>0.03224620719434611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0425984800546932</v>
+        <v>-0.03726132775373302</v>
       </c>
       <c r="C39">
-        <v>0.06869802135989925</v>
+        <v>0.06630785069721366</v>
       </c>
       <c r="D39">
-        <v>0.01392749328441668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04775363969440864</v>
+      </c>
+      <c r="E39">
+        <v>-0.04409355394784864</v>
+      </c>
+      <c r="F39">
+        <v>-0.08620125492780081</v>
+      </c>
+      <c r="G39">
+        <v>0.03635372939766723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01164613342728639</v>
+        <v>-0.01230797186252263</v>
       </c>
       <c r="C40">
-        <v>0.05258748976033162</v>
+        <v>0.0379142459123806</v>
       </c>
       <c r="D40">
-        <v>0.01654626201270925</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02770009169324988</v>
+      </c>
+      <c r="E40">
+        <v>-0.0812983282857748</v>
+      </c>
+      <c r="F40">
+        <v>-0.05753606321774321</v>
+      </c>
+      <c r="G40">
+        <v>0.08518492552189441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02159997198124447</v>
+        <v>-0.01920769543527501</v>
       </c>
       <c r="C41">
-        <v>0.01424462192452862</v>
+        <v>0.01095205390063495</v>
       </c>
       <c r="D41">
-        <v>0.002437529394628458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01466425414369252</v>
+      </c>
+      <c r="E41">
+        <v>-0.05665073835386546</v>
+      </c>
+      <c r="F41">
+        <v>-0.05905160093200731</v>
+      </c>
+      <c r="G41">
+        <v>0.03879257926328552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03779965879714253</v>
+        <v>-0.02853000096157918</v>
       </c>
       <c r="C43">
-        <v>0.036279136543766</v>
+        <v>0.02622745013367901</v>
       </c>
       <c r="D43">
-        <v>0.02895023445872942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04139017133540057</v>
+      </c>
+      <c r="E43">
+        <v>-0.07242324471806107</v>
+      </c>
+      <c r="F43">
+        <v>-0.06069296739294739</v>
+      </c>
+      <c r="G43">
+        <v>0.06334625606920995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01052449725730749</v>
+        <v>-0.0127555676545243</v>
       </c>
       <c r="C44">
-        <v>0.06832948288654579</v>
+        <v>0.04927815161109222</v>
       </c>
       <c r="D44">
-        <v>0.008376117449413934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03077576954787824</v>
+      </c>
+      <c r="E44">
+        <v>-0.08603828658602616</v>
+      </c>
+      <c r="F44">
+        <v>-0.07002611412692299</v>
+      </c>
+      <c r="G44">
+        <v>0.02841665522846797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007056553901912353</v>
+        <v>-0.007945879150810287</v>
       </c>
       <c r="C46">
-        <v>0.02974521304006394</v>
+        <v>0.02979122821874988</v>
       </c>
       <c r="D46">
-        <v>-0.01924998331872073</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.008749744315515061</v>
+      </c>
+      <c r="E46">
+        <v>-0.05412849339505784</v>
+      </c>
+      <c r="F46">
+        <v>-0.09704384259591589</v>
+      </c>
+      <c r="G46">
+        <v>0.05855400478589074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08162080217266535</v>
+        <v>-0.08637041632126938</v>
       </c>
       <c r="C47">
-        <v>0.07403522740297347</v>
+        <v>0.08391953766666704</v>
       </c>
       <c r="D47">
-        <v>-0.026011896422952</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02207790221394683</v>
+      </c>
+      <c r="E47">
+        <v>-0.06743324742962499</v>
+      </c>
+      <c r="F47">
+        <v>-0.04406128682194078</v>
+      </c>
+      <c r="G47">
+        <v>0.07569468672454861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01775916018407028</v>
+        <v>-0.01588468184046557</v>
       </c>
       <c r="C48">
-        <v>0.01621734276645177</v>
+        <v>0.01729584480612377</v>
       </c>
       <c r="D48">
-        <v>-0.01754176269456911</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009786038072696469</v>
+      </c>
+      <c r="E48">
+        <v>-0.06585459622173895</v>
+      </c>
+      <c r="F48">
+        <v>-0.08178783345074442</v>
+      </c>
+      <c r="G48">
+        <v>0.05432345231614467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07785572093731499</v>
+        <v>-0.06875965638208385</v>
       </c>
       <c r="C50">
-        <v>0.08446104348100354</v>
+        <v>0.07786851040322404</v>
       </c>
       <c r="D50">
-        <v>-0.02740242224828015</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007675696027257164</v>
+      </c>
+      <c r="E50">
+        <v>-0.07384716930605439</v>
+      </c>
+      <c r="F50">
+        <v>-0.02242134872426789</v>
+      </c>
+      <c r="G50">
+        <v>0.09254155156552024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01312643176011466</v>
+        <v>-0.008737784412605249</v>
       </c>
       <c r="C51">
-        <v>0.05168606184085942</v>
+        <v>0.03257686066738109</v>
       </c>
       <c r="D51">
-        <v>0.03045403922425165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0509514905985723</v>
+      </c>
+      <c r="E51">
+        <v>-0.04704608978477193</v>
+      </c>
+      <c r="F51">
+        <v>-0.08258689988124014</v>
+      </c>
+      <c r="G51">
+        <v>0.0328330022620294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07982958332006465</v>
+        <v>-0.09241689578271192</v>
       </c>
       <c r="C53">
-        <v>0.08044326786511467</v>
+        <v>0.09066683121106146</v>
       </c>
       <c r="D53">
-        <v>-0.05030659609544611</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05345409342222533</v>
+      </c>
+      <c r="E53">
+        <v>-0.06145252913988365</v>
+      </c>
+      <c r="F53">
+        <v>-0.04164518842122546</v>
+      </c>
+      <c r="G53">
+        <v>0.07933471356796477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0321205295801886</v>
+        <v>-0.02810291201280327</v>
       </c>
       <c r="C54">
-        <v>0.03399715690619433</v>
+        <v>0.03067490863495908</v>
       </c>
       <c r="D54">
-        <v>-0.004736555320368029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02303257073314892</v>
+      </c>
+      <c r="E54">
+        <v>-0.05212830737997752</v>
+      </c>
+      <c r="F54">
+        <v>-0.08642260505673052</v>
+      </c>
+      <c r="G54">
+        <v>0.0583620580511833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07377778221645823</v>
+        <v>-0.08432615556086014</v>
       </c>
       <c r="C55">
-        <v>0.06083803033696476</v>
+        <v>0.07285041774142076</v>
       </c>
       <c r="D55">
-        <v>-0.05394247416201775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05696989058339127</v>
+      </c>
+      <c r="E55">
+        <v>-0.04405317204211402</v>
+      </c>
+      <c r="F55">
+        <v>-0.0231107622363977</v>
+      </c>
+      <c r="G55">
+        <v>0.05914497462387096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1436558702417934</v>
+        <v>-0.145807052626982</v>
       </c>
       <c r="C56">
-        <v>0.1003519536633331</v>
+        <v>0.1117876842694377</v>
       </c>
       <c r="D56">
-        <v>-0.04654637161926717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0534824947572719</v>
+      </c>
+      <c r="E56">
+        <v>-0.04293628895588147</v>
+      </c>
+      <c r="F56">
+        <v>0.001630740390056118</v>
+      </c>
+      <c r="G56">
+        <v>0.04448667544745564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04374231917507261</v>
+        <v>-0.02634319212512927</v>
       </c>
       <c r="C58">
-        <v>0.03504681562797714</v>
+        <v>0.02811040122278332</v>
       </c>
       <c r="D58">
-        <v>0.7493997881224842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.384505319395012</v>
+      </c>
+      <c r="E58">
+        <v>-0.6624255061245502</v>
+      </c>
+      <c r="F58">
+        <v>0.4865185233085816</v>
+      </c>
+      <c r="G58">
+        <v>-0.3107398432050774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1400214253028284</v>
+        <v>-0.1503544373272685</v>
       </c>
       <c r="C59">
-        <v>-0.1920582860977499</v>
+        <v>-0.1835750103797646</v>
       </c>
       <c r="D59">
-        <v>0.02742991929412007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02675166742974197</v>
+      </c>
+      <c r="E59">
+        <v>-0.02883194285204598</v>
+      </c>
+      <c r="F59">
+        <v>-0.02843928856836749</v>
+      </c>
+      <c r="G59">
+        <v>-0.02013496718625862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3069171318674903</v>
+        <v>-0.2784902685082257</v>
       </c>
       <c r="C60">
-        <v>0.1142793366834108</v>
+        <v>0.1103981921027966</v>
       </c>
       <c r="D60">
-        <v>0.1363319105586265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2592409486673886</v>
+      </c>
+      <c r="E60">
+        <v>0.2432011547221749</v>
+      </c>
+      <c r="F60">
+        <v>0.07455531764845928</v>
+      </c>
+      <c r="G60">
+        <v>0.03944336631310451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04080985903939529</v>
+        <v>-0.03884790114321326</v>
       </c>
       <c r="C61">
-        <v>0.06631430610070205</v>
+        <v>0.06211218508171865</v>
       </c>
       <c r="D61">
-        <v>0.009939175590538687</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03887344931848021</v>
+      </c>
+      <c r="E61">
+        <v>-0.04717094545695893</v>
+      </c>
+      <c r="F61">
+        <v>-0.0692690682912656</v>
+      </c>
+      <c r="G61">
+        <v>0.05508291242458314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01422316787182116</v>
+        <v>-0.01384847818012971</v>
       </c>
       <c r="C63">
-        <v>0.03527905263009518</v>
+        <v>0.03260875953309624</v>
       </c>
       <c r="D63">
-        <v>-0.01369629950967156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01526712077203524</v>
+      </c>
+      <c r="E63">
+        <v>-0.05859306968248088</v>
+      </c>
+      <c r="F63">
+        <v>-0.05418777307632311</v>
+      </c>
+      <c r="G63">
+        <v>0.06373772489002562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0475864217431629</v>
+        <v>-0.05372928554859924</v>
       </c>
       <c r="C64">
-        <v>0.04940137930007434</v>
+        <v>0.05892158702847699</v>
       </c>
       <c r="D64">
-        <v>-0.001653632871637623</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.002895814812236388</v>
+      </c>
+      <c r="E64">
+        <v>-0.03457385807329848</v>
+      </c>
+      <c r="F64">
+        <v>-0.07280853072315277</v>
+      </c>
+      <c r="G64">
+        <v>0.04729055334590884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08123113197525396</v>
+        <v>-0.0659694115867747</v>
       </c>
       <c r="C65">
-        <v>0.03213427685888086</v>
+        <v>0.02995823634664501</v>
       </c>
       <c r="D65">
-        <v>0.05967073163155516</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0859668011707595</v>
+      </c>
+      <c r="E65">
+        <v>-0.05388394161549984</v>
+      </c>
+      <c r="F65">
+        <v>-0.01045661829350645</v>
+      </c>
+      <c r="G65">
+        <v>0.019537923799729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05730773497971309</v>
+        <v>-0.04832221598932845</v>
       </c>
       <c r="C66">
-        <v>0.09488160174009139</v>
+        <v>0.08532437852523794</v>
       </c>
       <c r="D66">
-        <v>0.03243933784653395</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07199185516039393</v>
+      </c>
+      <c r="E66">
+        <v>-0.05235136771598966</v>
+      </c>
+      <c r="F66">
+        <v>-0.08349450737249769</v>
+      </c>
+      <c r="G66">
+        <v>0.05419048854874067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05026669336515396</v>
+        <v>-0.04413205498777131</v>
       </c>
       <c r="C67">
-        <v>0.03414442266128978</v>
+        <v>0.02991013022575355</v>
       </c>
       <c r="D67">
-        <v>-0.02097838101471032</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.002708325238540776</v>
+      </c>
+      <c r="E67">
+        <v>-0.02551576962905546</v>
+      </c>
+      <c r="F67">
+        <v>-0.03821638780076698</v>
+      </c>
+      <c r="G67">
+        <v>0.0280380766316066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1410099279326023</v>
+        <v>-0.1603059277520344</v>
       </c>
       <c r="C68">
-        <v>-0.2768487668372321</v>
+        <v>-0.2410946819313358</v>
       </c>
       <c r="D68">
-        <v>-0.001594088314881599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01508114716770725</v>
+      </c>
+      <c r="E68">
+        <v>-0.03988489786151162</v>
+      </c>
+      <c r="F68">
+        <v>-0.01165049042240117</v>
+      </c>
+      <c r="G68">
+        <v>0.02832176268384144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08825457460755913</v>
+        <v>-0.08516091053252622</v>
       </c>
       <c r="C69">
-        <v>0.07357148771145192</v>
+        <v>0.09115186907124616</v>
       </c>
       <c r="D69">
-        <v>-0.04163110054852324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01320498060013539</v>
+      </c>
+      <c r="E69">
+        <v>-0.0523173940022835</v>
+      </c>
+      <c r="F69">
+        <v>-0.0711727534722038</v>
+      </c>
+      <c r="G69">
+        <v>0.06642076360252547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1271674677248171</v>
+        <v>-0.1504310172034146</v>
       </c>
       <c r="C71">
-        <v>-0.244355415314482</v>
+        <v>-0.2328847600989956</v>
       </c>
       <c r="D71">
-        <v>0.02293659146705292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002396972690167802</v>
+      </c>
+      <c r="E71">
+        <v>-0.06247743580729907</v>
+      </c>
+      <c r="F71">
+        <v>-0.03073216204970896</v>
+      </c>
+      <c r="G71">
+        <v>0.05939788789097535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08898304960261888</v>
+        <v>-0.09775279838643863</v>
       </c>
       <c r="C72">
-        <v>0.06200926224745532</v>
+        <v>0.06223432178743128</v>
       </c>
       <c r="D72">
-        <v>0.001031953716820782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02595681439758629</v>
+      </c>
+      <c r="E72">
+        <v>-0.02518764217879787</v>
+      </c>
+      <c r="F72">
+        <v>-0.04969368874512303</v>
+      </c>
+      <c r="G72">
+        <v>0.06462711496061078</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4016722731220108</v>
+        <v>-0.3402753995440616</v>
       </c>
       <c r="C73">
-        <v>0.06765982558445986</v>
+        <v>0.07949466857510704</v>
       </c>
       <c r="D73">
-        <v>0.3452995609526862</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5174103857056851</v>
+      </c>
+      <c r="E73">
+        <v>0.4424871252738715</v>
+      </c>
+      <c r="F73">
+        <v>0.2315444504106469</v>
+      </c>
+      <c r="G73">
+        <v>0.03373616854310583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1013345411774188</v>
+        <v>-0.1074077165580538</v>
       </c>
       <c r="C74">
-        <v>0.09721270716539711</v>
+        <v>0.09828874874763327</v>
       </c>
       <c r="D74">
-        <v>-0.02516304185061439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04267504653742724</v>
+      </c>
+      <c r="E74">
+        <v>-0.06286730354331148</v>
+      </c>
+      <c r="F74">
+        <v>0.0009067391782481468</v>
+      </c>
+      <c r="G74">
+        <v>0.06797137753039881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2492885150899571</v>
+        <v>-0.2543363946457191</v>
       </c>
       <c r="C75">
-        <v>0.1131049454249982</v>
+        <v>0.1384810380667346</v>
       </c>
       <c r="D75">
-        <v>-0.1081819186146489</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1493557896466518</v>
+      </c>
+      <c r="E75">
+        <v>-0.04786237064467537</v>
+      </c>
+      <c r="F75">
+        <v>0.04282290307118713</v>
+      </c>
+      <c r="G75">
+        <v>0.01604939869574932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1089514647352765</v>
+        <v>-0.1238242362112834</v>
       </c>
       <c r="C76">
-        <v>0.08697160788721923</v>
+        <v>0.09955499397246309</v>
       </c>
       <c r="D76">
-        <v>-0.05189496721422224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07127057515698755</v>
+      </c>
+      <c r="E76">
+        <v>-0.06873099279675764</v>
+      </c>
+      <c r="F76">
+        <v>-0.02014520636373959</v>
+      </c>
+      <c r="G76">
+        <v>0.05589800479146916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07446882390900533</v>
+        <v>-0.06041370267961365</v>
       </c>
       <c r="C77">
-        <v>0.06060897548910427</v>
+        <v>0.06806635372133922</v>
       </c>
       <c r="D77">
-        <v>0.04818093578384897</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05444365620062936</v>
+      </c>
+      <c r="E77">
+        <v>-0.09819624708777719</v>
+      </c>
+      <c r="F77">
+        <v>-0.1564786593097522</v>
+      </c>
+      <c r="G77">
+        <v>-0.1062714220140876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04543433284681496</v>
+        <v>-0.04261631760748316</v>
       </c>
       <c r="C78">
-        <v>0.0534971959389058</v>
+        <v>0.05888480412788268</v>
       </c>
       <c r="D78">
-        <v>0.0170502076020969</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05681577018621392</v>
+      </c>
+      <c r="E78">
+        <v>-0.05482848157584831</v>
+      </c>
+      <c r="F78">
+        <v>-0.07747507119321946</v>
+      </c>
+      <c r="G78">
+        <v>0.04813079198783505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02848030030381471</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04608026147207421</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07382455417248383</v>
+      </c>
+      <c r="E79">
+        <v>-0.06040326952912562</v>
+      </c>
+      <c r="F79">
+        <v>0.01085216328389067</v>
+      </c>
+      <c r="G79">
+        <v>0.06119975244672638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03765261473470212</v>
+        <v>-0.02923815785973071</v>
       </c>
       <c r="C80">
-        <v>0.05149382120183575</v>
+        <v>0.05106419618888243</v>
       </c>
       <c r="D80">
-        <v>0.02363144873263355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03662180850729565</v>
+      </c>
+      <c r="E80">
+        <v>-0.01917823976604324</v>
+      </c>
+      <c r="F80">
+        <v>-0.04513533269970823</v>
+      </c>
+      <c r="G80">
+        <v>-0.02678989433176488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1360348308401405</v>
+        <v>-0.1361485566646225</v>
       </c>
       <c r="C81">
-        <v>0.08154613800807294</v>
+        <v>0.09794125683791208</v>
       </c>
       <c r="D81">
-        <v>-0.07629208891184454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1181129277657298</v>
+      </c>
+      <c r="E81">
+        <v>-0.06943513017466008</v>
+      </c>
+      <c r="F81">
+        <v>0.02740896291587388</v>
+      </c>
+      <c r="G81">
+        <v>0.0226422316620143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1700100437914102</v>
+        <v>-0.2073030591359318</v>
       </c>
       <c r="C82">
-        <v>0.09926930933420362</v>
+        <v>0.1631243087584597</v>
       </c>
       <c r="D82">
-        <v>-0.1757357028686156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2450071285873215</v>
+      </c>
+      <c r="E82">
+        <v>0.01839512356291595</v>
+      </c>
+      <c r="F82">
+        <v>-0.05373684681410241</v>
+      </c>
+      <c r="G82">
+        <v>0.04355453948668403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03801680226829739</v>
+        <v>-0.02602329578671166</v>
       </c>
       <c r="C83">
-        <v>0.03185820307026305</v>
+        <v>0.04339791096234238</v>
       </c>
       <c r="D83">
-        <v>0.02727962364834886</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02759568632903626</v>
+      </c>
+      <c r="E83">
+        <v>-0.02345958639592342</v>
+      </c>
+      <c r="F83">
+        <v>-0.04680007466414188</v>
+      </c>
+      <c r="G83">
+        <v>-0.001692957533833004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001325335741788721</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007559573747229957</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001126495961198156</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007247215650455208</v>
+      </c>
+      <c r="F84">
+        <v>-0.001008221824303836</v>
+      </c>
+      <c r="G84">
+        <v>0.000463897366955689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2158683050688418</v>
+        <v>-0.1996297039973773</v>
       </c>
       <c r="C85">
-        <v>0.110488447907351</v>
+        <v>0.1216718180160673</v>
       </c>
       <c r="D85">
-        <v>-0.143136785867453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1154197942734933</v>
+      </c>
+      <c r="E85">
+        <v>0.02254013799315695</v>
+      </c>
+      <c r="F85">
+        <v>0.0909214673323946</v>
+      </c>
+      <c r="G85">
+        <v>0.06354231578810973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005016809553398585</v>
+        <v>-0.007941701278843175</v>
       </c>
       <c r="C86">
-        <v>0.0299732944812431</v>
+        <v>0.02122051630525772</v>
       </c>
       <c r="D86">
-        <v>0.04439737391491322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0571322834702027</v>
+      </c>
+      <c r="E86">
+        <v>-0.07286755178265521</v>
+      </c>
+      <c r="F86">
+        <v>-0.1163973094356577</v>
+      </c>
+      <c r="G86">
+        <v>0.05369061152048171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02275401628659179</v>
+        <v>-0.02314183329254009</v>
       </c>
       <c r="C87">
-        <v>0.0100948895582614</v>
+        <v>0.01502555424986181</v>
       </c>
       <c r="D87">
-        <v>0.08793585813454809</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07935434244326073</v>
+      </c>
+      <c r="E87">
+        <v>-0.1253520225103355</v>
+      </c>
+      <c r="F87">
+        <v>-0.08346783262546424</v>
+      </c>
+      <c r="G87">
+        <v>-0.0007810414758141563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1025521524387549</v>
+        <v>-0.09021367945962831</v>
       </c>
       <c r="C88">
-        <v>0.07505400678563491</v>
+        <v>0.06459299828881238</v>
       </c>
       <c r="D88">
-        <v>-0.02405196028273571</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.003769074581406991</v>
+      </c>
+      <c r="E88">
+        <v>-0.04864562688434305</v>
+      </c>
+      <c r="F88">
+        <v>-0.07715073042739777</v>
+      </c>
+      <c r="G88">
+        <v>0.01899901300584297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2009850281349431</v>
+        <v>-0.2313026629519349</v>
       </c>
       <c r="C89">
-        <v>-0.3686571314485548</v>
+        <v>-0.3717214438419977</v>
       </c>
       <c r="D89">
-        <v>-0.02422080378669958</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02561046942265447</v>
+      </c>
+      <c r="E89">
+        <v>-0.06634134447813164</v>
+      </c>
+      <c r="F89">
+        <v>-0.09146167007046609</v>
+      </c>
+      <c r="G89">
+        <v>-0.02733547907336835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1926960946240512</v>
+        <v>-0.2100258408542837</v>
       </c>
       <c r="C90">
-        <v>-0.3276459205994455</v>
+        <v>-0.3057595260222506</v>
       </c>
       <c r="D90">
-        <v>-0.02594776539928151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02689757149008134</v>
+      </c>
+      <c r="E90">
+        <v>-0.06689478663822032</v>
+      </c>
+      <c r="F90">
+        <v>-0.04031167216384091</v>
+      </c>
+      <c r="G90">
+        <v>0.004103147436611001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1844624755573999</v>
+        <v>-0.1823790496826138</v>
       </c>
       <c r="C91">
-        <v>0.1337197476315426</v>
+        <v>0.1490956654063373</v>
       </c>
       <c r="D91">
-        <v>-0.1038952209680869</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1252230060362911</v>
+      </c>
+      <c r="E91">
+        <v>-0.04809303190513311</v>
+      </c>
+      <c r="F91">
+        <v>0.0117353737344029</v>
+      </c>
+      <c r="G91">
+        <v>0.0274649016234446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1731578809640459</v>
+        <v>-0.1892519897696422</v>
       </c>
       <c r="C92">
-        <v>-0.2741545483577285</v>
+        <v>-0.2820432571514402</v>
       </c>
       <c r="D92">
-        <v>-0.01904387960521649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02840039965416867</v>
+      </c>
+      <c r="E92">
+        <v>-0.07208547899669482</v>
+      </c>
+      <c r="F92">
+        <v>-0.07580127035916984</v>
+      </c>
+      <c r="G92">
+        <v>0.0168559859539102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2132020225971436</v>
+        <v>-0.2317798002702885</v>
       </c>
       <c r="C93">
-        <v>-0.3294309361104006</v>
+        <v>-0.3125037243207489</v>
       </c>
       <c r="D93">
-        <v>-0.02513162349736502</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02121287700891621</v>
+      </c>
+      <c r="E93">
+        <v>-0.04265448078404484</v>
+      </c>
+      <c r="F93">
+        <v>-0.02001997383902801</v>
+      </c>
+      <c r="G93">
+        <v>0.03786338655352606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3292527925740413</v>
+        <v>-0.3333921607450667</v>
       </c>
       <c r="C94">
-        <v>0.1584085775138615</v>
+        <v>0.1954332172294223</v>
       </c>
       <c r="D94">
-        <v>-0.3368375667297046</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4336653193831092</v>
+      </c>
+      <c r="E94">
+        <v>-0.00433140710760318</v>
+      </c>
+      <c r="F94">
+        <v>0.2518915383734584</v>
+      </c>
+      <c r="G94">
+        <v>-0.4259176922180043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.110854410365539</v>
+        <v>-0.0823333007314449</v>
       </c>
       <c r="C95">
-        <v>0.07709181480328151</v>
+        <v>0.06661439795568552</v>
       </c>
       <c r="D95">
-        <v>0.1299295033182987</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1838438730115564</v>
+      </c>
+      <c r="E95">
+        <v>0.09607503558083708</v>
+      </c>
+      <c r="F95">
+        <v>-0.5585696230225632</v>
+      </c>
+      <c r="G95">
+        <v>-0.7133406192994495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1959433320169376</v>
+        <v>-0.1871347830968771</v>
       </c>
       <c r="C98">
-        <v>0.02736746653177174</v>
+        <v>0.04907804396528477</v>
       </c>
       <c r="D98">
-        <v>0.1186678076400264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1972959286545019</v>
+      </c>
+      <c r="E98">
+        <v>0.1357770975728904</v>
+      </c>
+      <c r="F98">
+        <v>0.06175451560833655</v>
+      </c>
+      <c r="G98">
+        <v>0.08528094586204298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005733239432834753</v>
+        <v>-0.004635254336979917</v>
       </c>
       <c r="C101">
-        <v>0.0328065376470693</v>
+        <v>0.02909891845255034</v>
       </c>
       <c r="D101">
-        <v>-0.01757568505591409</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01519655679525322</v>
+      </c>
+      <c r="E101">
+        <v>-0.04620163702497832</v>
+      </c>
+      <c r="F101">
+        <v>-0.08310438657926515</v>
+      </c>
+      <c r="G101">
+        <v>0.06043022942106337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1218994558314212</v>
+        <v>-0.1233099409651285</v>
       </c>
       <c r="C102">
-        <v>0.07604533475105513</v>
+        <v>0.1048809454882192</v>
       </c>
       <c r="D102">
-        <v>-0.04127000768707192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05318003340871048</v>
+      </c>
+      <c r="E102">
+        <v>0.01170951911521882</v>
+      </c>
+      <c r="F102">
+        <v>-0.01794368138645108</v>
+      </c>
+      <c r="G102">
+        <v>0.001816967538612094</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
